--- a/PM演習_設計書_全体.xlsx
+++ b/PM演習_設計書_全体.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16530" windowHeight="10935" tabRatio="732"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16530" windowHeight="10935" tabRatio="732" firstSheet="6" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="表紙_外部" sheetId="13" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="172">
   <si>
     <t>資料名</t>
     <rPh sb="0" eb="2">
@@ -999,16 +999,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>（避難情報システム）</t>
-    <rPh sb="1" eb="3">
-      <t>ヒナン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>マップ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1036,10 +1026,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>システムへアクセスしたユーザにTOP画面を表示</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>避難所追加処理が成功した際に表示</t>
     <rPh sb="0" eb="3">
       <t>ヒナンジョ</t>
@@ -1058,22 +1044,6 @@
     </rPh>
     <rPh sb="14" eb="16">
       <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>現在の災害情報をツイッターから取得</t>
-    <rPh sb="0" eb="2">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>サイガイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>シュトク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1122,19 +1092,6 @@
     </rPh>
     <rPh sb="15" eb="17">
       <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>災害情報画面</t>
-    <rPh sb="0" eb="2">
-      <t>サイガイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1171,16 +1128,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>(避難情報サービス)</t>
-    <rPh sb="1" eb="3">
-      <t>ヒナン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>①</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1190,16 +1137,6 @@
   </si>
   <si>
     <t>0.0.0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>避難情報サービス</t>
-    <rPh sb="0" eb="2">
-      <t>ヒナン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1566,19 +1503,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>トップページ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1816,6 +1741,58 @@
     </rPh>
     <rPh sb="24" eb="26">
       <t>テイキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小</t>
+  </si>
+  <si>
+    <t>大</t>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>災害情報</t>
+    <rPh sb="0" eb="2">
+      <t>サイガイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>習志野市内と日本国内の災害情報を表示</t>
+    <rPh sb="0" eb="5">
+      <t>ナラシノシナイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニホン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コクナイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サイガイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>避難情報システム</t>
+    <rPh sb="0" eb="2">
+      <t>ヒナン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1949,7 +1926,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -2393,13 +2370,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2613,6 +2603,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2703,28 +2702,31 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2736,10 +2738,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2772,11 +2771,59 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7838,168 +7885,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>569614</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>78443</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>99463</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>67378</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2196450" y="3475412"/>
-          <a:ext cx="1097681" cy="494687"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>1 TOP</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>ページ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>659758</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>78439</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>100853</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>67235</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3864640" y="3462615"/>
-          <a:ext cx="1009919" cy="493061"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>TOP</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>ページ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>101150</xdr:colOff>
       <xdr:row>20</xdr:row>
@@ -8071,16 +7956,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>670469</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>156882</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>592027</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>78443</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>200318</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>145817</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>121877</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>67377</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -8089,7 +7974,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3875351" y="4381500"/>
+          <a:off x="2228086" y="3462619"/>
           <a:ext cx="1098673" cy="493199"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8135,6 +8020,26 @@
             </a:rPr>
             <a:t>マップ画面</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>（利用者用）</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -8145,26 +8050,26 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>121876</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>156953</xdr:rowOff>
+      <xdr:rowOff>156952</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>569614</xdr:colOff>
+      <xdr:colOff>592027</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>156955</xdr:rowOff>
+      <xdr:rowOff>156954</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="9" name="カギ線コネクタ 8"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="5" idx="3"/>
-          <a:endCxn id="3" idx="1"/>
+          <a:endCxn id="6" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1748712" y="3722506"/>
-          <a:ext cx="447738" cy="2"/>
+          <a:off x="1757935" y="3709217"/>
+          <a:ext cx="470151" cy="2"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -8206,10 +8111,7 @@
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="11" name="カギ線コネクタ 10"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="3"/>
-          <a:endCxn id="4" idx="1"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
@@ -8351,62 +8253,12 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>334539</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>67377</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>670470</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>67305</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="カギ線コネクタ 18"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="2"/>
-          <a:endCxn id="6" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="2979040" y="3731788"/>
-          <a:ext cx="672281" cy="1120342"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>76555</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>112058</xdr:rowOff>
+      <xdr:colOff>132585</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="694101" cy="242374"/>
     <xdr:sp macro="" textlink="">
@@ -8416,7 +8268,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4850261" y="3832411"/>
+          <a:off x="4906291" y="3944470"/>
           <a:ext cx="694101" cy="242374"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8456,9 +8308,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>20387</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>78441</xdr:rowOff>
+      <xdr:colOff>42799</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="740223" cy="542456"/>
     <xdr:sp macro="" textlink="">
@@ -8468,7 +8320,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3225269" y="3798794"/>
+          <a:off x="3247681" y="3910853"/>
           <a:ext cx="740223" cy="542456"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8513,9 +8365,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>580186</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>56029</xdr:rowOff>
+      <xdr:colOff>479333</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>123264</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="740223" cy="242374"/>
     <xdr:sp macro="" textlink="">
@@ -8525,7 +8377,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3000657" y="4616823"/>
+          <a:off x="2899804" y="4852146"/>
           <a:ext cx="740223" cy="242374"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8937,15 +8789,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>336176</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>67235</xdr:rowOff>
+      <xdr:colOff>324970</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>67234</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>705971</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>44894</xdr:rowOff>
+      <xdr:colOff>694765</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>44893</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8956,7 +8808,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2756647" y="4628029"/>
+          <a:off x="2745441" y="3955675"/>
           <a:ext cx="1154206" cy="818100"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
@@ -9002,7 +8854,6 @@
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="44" name="直線矢印コネクタ 43"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="4" idx="3"/>
           <a:endCxn id="29" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
@@ -9276,71 +9127,18 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>593911</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>123266</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="740223" cy="242374"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="テキスト ボックス 62"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3014382" y="5524501"/>
-          <a:ext cx="740223" cy="242374"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
-            <a:t>リンク押下</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>705971</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>134470</xdr:rowOff>
+      <xdr:colOff>694765</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>134469</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>235820</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>123404</xdr:rowOff>
+      <xdr:colOff>224614</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>123403</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9349,7 +9147,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3910853" y="5199529"/>
+          <a:off x="3899647" y="4527175"/>
           <a:ext cx="1098673" cy="493199"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9394,6 +9192,97 @@
               <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
             </a:rPr>
             <a:t>災害情報</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>672353</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>202202</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>67375</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="正方形/長方形 34"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3877235" y="3462617"/>
+          <a:ext cx="1098673" cy="493199"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>マップ画面</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="MS UI Gothic" panose="020B0600070205080204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>（管理者用）</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -9774,14 +9663,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>658814</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>103189</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>500064</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>166688</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>58736</xdr:rowOff>
     </xdr:to>
@@ -9792,8 +9681,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1201739" y="1371600"/>
-          <a:ext cx="508000" cy="230186"/>
+          <a:off x="722314" y="1409700"/>
+          <a:ext cx="3381374" cy="236536"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9843,26 +9732,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>41276</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>173038</xdr:rowOff>
+      <xdr:rowOff>150813</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>454026</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>23811</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>60324</xdr:rowOff>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="555626" y="1373188"/>
-          <a:ext cx="641350" cy="230186"/>
+          <a:off x="4222750" y="1389063"/>
+          <a:ext cx="3325811" cy="236536"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9898,73 +9787,11 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>TOP</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>669926</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>150813</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>34926</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1717676" y="1350963"/>
-          <a:ext cx="374650" cy="230186"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg2"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg2"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>災害情報</a:t>
           </a:r>
         </a:p>
@@ -10415,16 +10242,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>39690</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>166690</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>46038</xdr:rowOff>
+      <xdr:rowOff>53975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>125413</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>587375</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>104773</xdr:rowOff>
+      <xdr:rowOff>112710</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10433,8 +10260,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1068390" y="1417638"/>
-          <a:ext cx="428623" cy="230185"/>
+          <a:off x="785815" y="1466850"/>
+          <a:ext cx="2182810" cy="233360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10484,26 +10311,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>25402</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>757240</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>39688</xdr:rowOff>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>682625</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>539751</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>98423</xdr:rowOff>
+      <xdr:rowOff>92072</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="539752" y="1411288"/>
-          <a:ext cx="485773" cy="230185"/>
+          <a:off x="3138490" y="1446212"/>
+          <a:ext cx="2116136" cy="233360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10539,10 +10366,13 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>TOP</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>災害情報</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -10550,26 +10380,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>241302</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>695328</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>41276</xdr:rowOff>
+      <xdr:rowOff>26988</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>327025</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>55563</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>100011</xdr:rowOff>
+      <xdr:rowOff>85723</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+        <xdr:cNvPr id="8" name="正方形/長方形 7"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1546227" y="1412876"/>
-          <a:ext cx="342898" cy="230185"/>
+          <a:off x="5410203" y="1439863"/>
+          <a:ext cx="2170110" cy="233360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10605,72 +10435,11 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>災害情報</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>504828</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>42863</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>114301</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>101598</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="正方形/長方形 7"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1885953" y="1414463"/>
-          <a:ext cx="285748" cy="230185"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg2"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg2"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>避難所追加</a:t>
           </a:r>
         </a:p>
@@ -11630,25 +11399,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>175873</xdr:colOff>
+      <xdr:colOff>81414</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>117187</xdr:rowOff>
+      <xdr:rowOff>56028</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>541802</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>280146</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>166539</xdr:rowOff>
+      <xdr:rowOff>156881</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="518773" y="1660237"/>
-          <a:ext cx="508804" cy="220802"/>
+          <a:off x="507238" y="1591234"/>
+          <a:ext cx="2193379" cy="268941"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11659,9 +11428,7 @@
           </a:schemeClr>
         </a:solidFill>
         <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -11784,7 +11551,14 @@
         </a:lstStyle>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>マップ</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -11792,183 +11566,37 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>286203</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>470647</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>55060</xdr:rowOff>
+      <xdr:rowOff>67234</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>364362</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>245367</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>44364</xdr:rowOff>
+      <xdr:rowOff>11205</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="テキスト ボックス 24"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="857703" y="1598110"/>
-          <a:ext cx="173409" cy="332204"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="ja-JP"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1600">
-              <a:latin typeface="+mj-ea"/>
-              <a:ea typeface="+mj-ea"/>
-            </a:rPr>
-            <a:t>TOP</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-            <a:latin typeface="+mj-ea"/>
-            <a:ea typeface="+mj-ea"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>641710</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>112349</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>642514</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>161701</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+        <xdr:cNvPr id="8" name="正方形/長方形 7"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1032235" y="1655399"/>
-          <a:ext cx="343704" cy="220802"/>
+          <a:off x="2891118" y="1602440"/>
+          <a:ext cx="2127955" cy="280147"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="bg2">
-            <a:lumMod val="90000"/>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -12091,7 +11719,10 @@
         </a:lstStyle>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
+            <a:t>避難所追加</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -12099,39 +11730,37 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>726416</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>414618</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>112927</xdr:rowOff>
+      <xdr:rowOff>44823</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>727220</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>414617</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>162279</xdr:rowOff>
+      <xdr:rowOff>155711</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+        <xdr:cNvPr id="9" name="正方形/長方形 8"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1374116" y="1655977"/>
-          <a:ext cx="343704" cy="220802"/>
+          <a:off x="5188324" y="1580029"/>
+          <a:ext cx="2039469" cy="278976"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="50000"/>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="90000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -12254,584 +11883,12 @@
         </a:lstStyle>
         <a:p>
           <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>137282</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>117565</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>439711</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>166917</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="正方形/長方形 8"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1851782" y="1660615"/>
-          <a:ext cx="207179" cy="220802"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg2">
-            <a:lumMod val="90000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="ja-JP"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>290383</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>79476</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>679266</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>68780</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="テキスト ボックス 32"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1204783" y="1622526"/>
-          <a:ext cx="169808" cy="332204"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="ja-JP"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1600"/>
-            <a:t>マップ</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>161752</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>46197</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>624937</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>56020</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="テキスト ボックス 33"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1533352" y="1589247"/>
-          <a:ext cx="177435" cy="352723"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="ja-JP"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>避難所追加</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>389508</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>70011</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>550240</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>59315</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="テキスト ボックス 34"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1884933" y="1613061"/>
-          <a:ext cx="170257" cy="332204"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" rtlCol="0">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:defPPr>
-            <a:defRPr lang="ja-JP"/>
-          </a:defPPr>
-          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-            <a:defRPr kumimoji="1" sz="1800" kern="1200">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
             <a:t>災害情報</a:t>
           </a:r>
         </a:p>
@@ -14165,16 +13222,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>22410</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>118129</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>204973</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>62567</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>119617</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>50893</xdr:rowOff>
+      <xdr:colOff>95805</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>169956</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14183,7 +13240,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="641535" y="1531004"/>
+          <a:off x="617723" y="1300817"/>
           <a:ext cx="7002832" cy="3949139"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14228,89 +13285,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>22411</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
+      <xdr:colOff>129804</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>32686</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>555626</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>119064</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="正方形/長方形 18"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="641536" y="1254125"/>
-          <a:ext cx="2295340" cy="277814"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg2"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>TOP</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-            <a:solidFill>
-              <a:schemeClr val="tx2"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>137742</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>127936</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>230189</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>7939</xdr:rowOff>
+      <xdr:colOff>222251</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>87314</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14319,7 +13302,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="756867" y="1890061"/>
+          <a:off x="748929" y="2144061"/>
           <a:ext cx="1854572" cy="578503"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14370,15 +13353,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>452439</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>6539</xdr:rowOff>
+      <xdr:colOff>349251</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38288</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>1230313</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>1127125</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>174624</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14387,7 +13370,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4389439" y="1943289"/>
+          <a:off x="4286251" y="2149663"/>
           <a:ext cx="2333624" cy="485586"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14438,15 +13421,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>181160</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>39688</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>71438</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>15876</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14455,8 +13438,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1006660" y="1920875"/>
-          <a:ext cx="2970028" cy="3405188"/>
+          <a:off x="968376" y="2111376"/>
+          <a:ext cx="2857499" cy="2984500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14673,15 +13656,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>31749</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>103184</xdr:rowOff>
+      <xdr:colOff>7937</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>158746</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>114860</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>166686</xdr:rowOff>
+      <xdr:colOff>91048</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>47623</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14690,7 +13673,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="650874" y="1516059"/>
+          <a:off x="627062" y="1746246"/>
           <a:ext cx="6988736" cy="238127"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -14700,9 +13683,7 @@
           <a:schemeClr val="tx2"/>
         </a:solidFill>
         <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -14745,16 +13726,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>635001</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>7938</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>55563</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>120466</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>111125</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>747528</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14763,8 +13744,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5349876" y="1246188"/>
-          <a:ext cx="2295340" cy="277812"/>
+          <a:off x="4349750" y="1468438"/>
+          <a:ext cx="3144653" cy="277812"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14773,9 +13754,7 @@
           <a:schemeClr val="tx2"/>
         </a:solidFill>
         <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -14814,16 +13793,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>604838</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>166689</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>55561</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>566553</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>112712</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>142876</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152398</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14832,8 +13811,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2986088" y="1254125"/>
-          <a:ext cx="2295340" cy="271462"/>
+          <a:off x="785814" y="1468436"/>
+          <a:ext cx="3294062" cy="271462"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14842,9 +13821,7 @@
           <a:schemeClr val="bg2"/>
         </a:solidFill>
         <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -14871,7 +13848,7 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
               <a:solidFill>
-                <a:schemeClr val="tx2"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>マップ</a:t>
@@ -14884,15 +13861,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>419285</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>165755</xdr:rowOff>
+      <xdr:colOff>373063</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>579438</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>78443</xdr:rowOff>
+      <xdr:colOff>484188</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>173693</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -14901,8 +13878,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4356285" y="1927880"/>
-          <a:ext cx="2970028" cy="3405188"/>
+          <a:off x="4310063" y="2095500"/>
+          <a:ext cx="2921000" cy="2983568"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14961,403 +13938,6 @@
 
 <file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>22410</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>118129</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>119617</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>50893</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="651060" y="1508779"/>
-          <a:ext cx="7031407" cy="3876114"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>30348</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>23813</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>722312</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>111126</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="649473" y="1262063"/>
-          <a:ext cx="1676214" cy="261938"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg2"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>TOP</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-            <a:solidFill>
-              <a:schemeClr val="tx2"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>137742</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>127936</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>230189</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>7939</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="766392" y="1861486"/>
-          <a:ext cx="1864097" cy="565803"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>地震情報</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>452439</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>6539</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1230313</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4414839" y="1911539"/>
-          <a:ext cx="2339974" cy="479236"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>習志野市緊急情報</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>181160</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>39688</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>71438</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1019360" y="1892300"/>
-          <a:ext cx="2982728" cy="3341688"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>（</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>"@tenkjp, @nhk_seikatsu, @UN_NERV, @etwinfo"</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>のツイート情報）</a:t>
-          </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
@@ -15620,32 +14200,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>31749</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>103184</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>71438</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>103187</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>114860</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>166686</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>740145</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>35951</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="正方形/長方形 7"/>
+        <xdr:cNvPr id="13" name="正方形/長方形 12"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="660399" y="1493834"/>
-          <a:ext cx="7017311" cy="234952"/>
+          <a:off x="484188" y="1341437"/>
+          <a:ext cx="7002832" cy="3949139"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="tx2"/>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
         </a:solidFill>
         <a:ln>
           <a:solidFill>
@@ -15674,16 +14254,295 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>202644</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>73306</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>88716</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>127934</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="615394" y="2184681"/>
+          <a:ext cx="1854572" cy="578503"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>地震情報</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>215716</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>78908</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>993590</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>40619</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="正方形/長方形 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4152716" y="2190283"/>
+          <a:ext cx="2333624" cy="485586"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>習志野市緊急情報</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9341</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>40621</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533215</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>56496</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="正方形/長方形 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="834841" y="2151996"/>
+          <a:ext cx="2857499" cy="2984500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>（</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>"@tenkjp, @nhk_seikatsu, @UN_NERV, @etwinfo"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>のツイート情報）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>80777</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>24741</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>735388</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>88243</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="正方形/長方形 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="493527" y="1786866"/>
+          <a:ext cx="6988736" cy="238127"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
             <a:t>日本国内と習志野市の災害情報（</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
             <a:t>Twitter</a:t>
           </a:r>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
             <a:t>）</a:t>
           </a:r>
         </a:p>
@@ -15693,26 +14552,160 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>419285</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>165755</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>428626</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>96183</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>579438</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>78443</xdr:rowOff>
+      <xdr:colOff>613994</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>24745</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="正方形/長方形 10"/>
+        <xdr:cNvPr id="21" name="正方形/長方形 20"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4381685" y="1899305"/>
-          <a:ext cx="2979553" cy="3341688"/>
+          <a:off x="5143501" y="1509058"/>
+          <a:ext cx="2217368" cy="277812"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>災害情報</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>33154</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>96181</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>18393</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="正方形/長方形 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="652279" y="1509056"/>
+          <a:ext cx="2014721" cy="271462"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>マップ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>239528</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>24745</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>350653</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>39688</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="正方形/長方形 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4176528" y="2136120"/>
+          <a:ext cx="2921000" cy="2983568"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15769,25 +14762,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>103187</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>168089</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>111123</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>206375</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>25399</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="正方形/長方形 14"/>
+        <xdr:cNvPr id="24" name="正方形/長方形 23"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2428875" y="1254125"/>
-          <a:ext cx="1676214" cy="269873"/>
+          <a:off x="2825750" y="1516062"/>
+          <a:ext cx="2095500" cy="271462"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -15796,9 +14789,7 @@
           <a:schemeClr val="bg2"/>
         </a:solidFill>
         <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -15825,148 +14816,10 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
               <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>マップ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>246062</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>366526</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>95248</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="正方形/長方形 15"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4183062" y="1238250"/>
-          <a:ext cx="1676214" cy="269873"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg2"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
             <a:t>避難所追加</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>461963</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>106177</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>96836</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="正方形/長方形 16"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5954713" y="1238250"/>
-          <a:ext cx="1676214" cy="271461"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="tx2"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>災害情報</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -16268,7 +15121,7 @@
   </sheetPr>
   <dimension ref="A1:Q37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="P1" sqref="P1:Q1"/>
     </sheetView>
   </sheetViews>
@@ -16283,7 +15136,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="24" x14ac:dyDescent="0.15">
       <c r="A1" s="55" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B1" s="47"/>
       <c r="C1" s="47"/>
@@ -16301,10 +15154,10 @@
       <c r="O1" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="P1" s="71">
-        <v>42923</v>
-      </c>
-      <c r="Q1" s="72"/>
+      <c r="P1" s="74">
+        <v>42927</v>
+      </c>
+      <c r="Q1" s="75"/>
     </row>
     <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.15">
       <c r="A2" s="49"/>
@@ -16321,11 +15174,11 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="83" t="s">
+      <c r="O2" s="86" t="s">
         <v>91</v>
       </c>
-      <c r="P2" s="83"/>
-      <c r="Q2" s="84"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="87"/>
     </row>
     <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="49"/>
@@ -16370,17 +15223,17 @@
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="88" t="s">
+      <c r="E5" s="91" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="89"/>
-      <c r="L5" s="89"/>
-      <c r="M5" s="89"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="92"/>
+      <c r="K5" s="92"/>
+      <c r="L5" s="92"/>
+      <c r="M5" s="92"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -16391,15 +15244,15 @@
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="89"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="89"/>
-      <c r="M6" s="89"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="92"/>
+      <c r="M6" s="92"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -16410,15 +15263,15 @@
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="89"/>
-      <c r="I7" s="89"/>
-      <c r="J7" s="89"/>
-      <c r="K7" s="89"/>
-      <c r="L7" s="89"/>
-      <c r="M7" s="89"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="92"/>
+      <c r="H7" s="92"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="92"/>
+      <c r="K7" s="92"/>
+      <c r="L7" s="92"/>
+      <c r="M7" s="92"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -16466,19 +15319,19 @@
       <c r="A10" s="49"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="91" t="s">
-        <v>92</v>
-      </c>
-      <c r="E10" s="91"/>
-      <c r="F10" s="91"/>
-      <c r="G10" s="91"/>
-      <c r="H10" s="91"/>
-      <c r="I10" s="91"/>
-      <c r="J10" s="91"/>
-      <c r="K10" s="91"/>
-      <c r="L10" s="91"/>
-      <c r="M10" s="91"/>
-      <c r="N10" s="91"/>
+      <c r="D10" s="94" t="s">
+        <v>171</v>
+      </c>
+      <c r="E10" s="94"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="94"/>
+      <c r="H10" s="94"/>
+      <c r="I10" s="94"/>
+      <c r="J10" s="94"/>
+      <c r="K10" s="94"/>
+      <c r="L10" s="94"/>
+      <c r="M10" s="94"/>
+      <c r="N10" s="94"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="50"/>
@@ -16487,17 +15340,17 @@
       <c r="A11" s="49"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="91"/>
-      <c r="G11" s="91"/>
-      <c r="H11" s="91"/>
-      <c r="I11" s="91"/>
-      <c r="J11" s="91"/>
-      <c r="K11" s="91"/>
-      <c r="L11" s="91"/>
-      <c r="M11" s="91"/>
-      <c r="N11" s="91"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="94"/>
+      <c r="H11" s="94"/>
+      <c r="I11" s="94"/>
+      <c r="J11" s="94"/>
+      <c r="K11" s="94"/>
+      <c r="L11" s="94"/>
+      <c r="M11" s="94"/>
+      <c r="N11" s="94"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="50"/>
@@ -16506,17 +15359,17 @@
       <c r="A12" s="49"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="91"/>
-      <c r="F12" s="91"/>
-      <c r="G12" s="91"/>
-      <c r="H12" s="91"/>
-      <c r="I12" s="91"/>
-      <c r="J12" s="91"/>
-      <c r="K12" s="91"/>
-      <c r="L12" s="91"/>
-      <c r="M12" s="91"/>
-      <c r="N12" s="91"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="94"/>
+      <c r="I12" s="94"/>
+      <c r="J12" s="94"/>
+      <c r="K12" s="94"/>
+      <c r="L12" s="94"/>
+      <c r="M12" s="94"/>
+      <c r="N12" s="94"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="50"/>
@@ -16526,17 +15379,17 @@
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="90" t="s">
+      <c r="E13" s="93" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="90"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="90"/>
-      <c r="I13" s="90"/>
-      <c r="J13" s="90"/>
-      <c r="K13" s="90"/>
-      <c r="L13" s="90"/>
-      <c r="M13" s="90"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="93"/>
+      <c r="K13" s="93"/>
+      <c r="L13" s="93"/>
+      <c r="M13" s="93"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -16547,15 +15400,15 @@
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="90"/>
-      <c r="L14" s="90"/>
-      <c r="M14" s="90"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="93"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="93"/>
+      <c r="K14" s="93"/>
+      <c r="L14" s="93"/>
+      <c r="M14" s="93"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -16566,15 +15419,15 @@
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="90"/>
-      <c r="K15" s="90"/>
-      <c r="L15" s="90"/>
-      <c r="M15" s="90"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="93"/>
+      <c r="H15" s="93"/>
+      <c r="I15" s="93"/>
+      <c r="J15" s="93"/>
+      <c r="K15" s="93"/>
+      <c r="L15" s="93"/>
+      <c r="M15" s="93"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -16585,15 +15438,15 @@
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="90"/>
-      <c r="I16" s="90"/>
-      <c r="J16" s="90"/>
-      <c r="K16" s="90"/>
-      <c r="L16" s="90"/>
-      <c r="M16" s="90"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="93"/>
+      <c r="I16" s="93"/>
+      <c r="J16" s="93"/>
+      <c r="K16" s="93"/>
+      <c r="L16" s="93"/>
+      <c r="M16" s="93"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -16604,15 +15457,15 @@
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="90"/>
-      <c r="H17" s="90"/>
-      <c r="I17" s="90"/>
-      <c r="J17" s="90"/>
-      <c r="K17" s="90"/>
-      <c r="L17" s="90"/>
-      <c r="M17" s="90"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="93"/>
+      <c r="I17" s="93"/>
+      <c r="J17" s="93"/>
+      <c r="K17" s="93"/>
+      <c r="L17" s="93"/>
+      <c r="M17" s="93"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -16643,15 +15496,15 @@
       <c r="C19" s="16"/>
       <c r="D19" s="2"/>
       <c r="E19" s="45"/>
-      <c r="F19" s="82" t="s">
+      <c r="F19" s="85" t="s">
         <v>77</v>
       </c>
-      <c r="G19" s="82"/>
-      <c r="H19" s="82"/>
-      <c r="I19" s="82"/>
-      <c r="J19" s="82"/>
-      <c r="K19" s="82"/>
-      <c r="L19" s="82"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="85"/>
+      <c r="I19" s="85"/>
+      <c r="J19" s="85"/>
+      <c r="K19" s="85"/>
+      <c r="L19" s="85"/>
       <c r="M19" s="46"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -16664,13 +15517,13 @@
       <c r="C20" s="16"/>
       <c r="D20" s="2"/>
       <c r="E20" s="46"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="82"/>
-      <c r="I20" s="82"/>
-      <c r="J20" s="82"/>
-      <c r="K20" s="82"/>
-      <c r="L20" s="82"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="85"/>
+      <c r="I20" s="85"/>
+      <c r="J20" s="85"/>
+      <c r="K20" s="85"/>
+      <c r="L20" s="85"/>
       <c r="M20" s="46"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -16683,13 +15536,13 @@
       <c r="C21" s="16"/>
       <c r="D21" s="2"/>
       <c r="E21" s="46"/>
-      <c r="F21" s="82"/>
-      <c r="G21" s="82"/>
-      <c r="H21" s="82"/>
-      <c r="I21" s="82"/>
-      <c r="J21" s="82"/>
-      <c r="K21" s="82"/>
-      <c r="L21" s="82"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="85"/>
+      <c r="I21" s="85"/>
+      <c r="J21" s="85"/>
+      <c r="K21" s="85"/>
+      <c r="L21" s="85"/>
       <c r="M21" s="46"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -16702,13 +15555,13 @@
       <c r="C22" s="16"/>
       <c r="D22" s="2"/>
       <c r="E22" s="46"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="82"/>
-      <c r="H22" s="82"/>
-      <c r="I22" s="82"/>
-      <c r="J22" s="82"/>
-      <c r="K22" s="82"/>
-      <c r="L22" s="82"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="85"/>
+      <c r="I22" s="85"/>
+      <c r="J22" s="85"/>
+      <c r="K22" s="85"/>
+      <c r="L22" s="85"/>
       <c r="M22" s="46"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -16721,13 +15574,13 @@
       <c r="C23" s="16"/>
       <c r="D23" s="2"/>
       <c r="E23" s="46"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="82"/>
-      <c r="H23" s="82"/>
-      <c r="I23" s="82"/>
-      <c r="J23" s="82"/>
-      <c r="K23" s="82"/>
-      <c r="L23" s="82"/>
+      <c r="F23" s="85"/>
+      <c r="G23" s="85"/>
+      <c r="H23" s="85"/>
+      <c r="I23" s="85"/>
+      <c r="J23" s="85"/>
+      <c r="K23" s="85"/>
+      <c r="L23" s="85"/>
       <c r="M23" s="46"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -16740,13 +15593,13 @@
       <c r="C24" s="16"/>
       <c r="D24" s="2"/>
       <c r="E24" s="46"/>
-      <c r="F24" s="82"/>
-      <c r="G24" s="82"/>
-      <c r="H24" s="82"/>
-      <c r="I24" s="82"/>
-      <c r="J24" s="82"/>
-      <c r="K24" s="82"/>
-      <c r="L24" s="82"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="85"/>
+      <c r="I24" s="85"/>
+      <c r="J24" s="85"/>
+      <c r="K24" s="85"/>
+      <c r="L24" s="85"/>
       <c r="M24" s="46"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -16759,13 +15612,13 @@
       <c r="C25" s="16"/>
       <c r="D25" s="2"/>
       <c r="E25" s="46"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="82"/>
-      <c r="I25" s="82"/>
-      <c r="J25" s="82"/>
-      <c r="K25" s="82"/>
-      <c r="L25" s="82"/>
+      <c r="F25" s="85"/>
+      <c r="G25" s="85"/>
+      <c r="H25" s="85"/>
+      <c r="I25" s="85"/>
+      <c r="J25" s="85"/>
+      <c r="K25" s="85"/>
+      <c r="L25" s="85"/>
       <c r="M25" s="46"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -16778,13 +15631,13 @@
       <c r="C26" s="16"/>
       <c r="D26" s="2"/>
       <c r="E26" s="46"/>
-      <c r="F26" s="82"/>
-      <c r="G26" s="82"/>
-      <c r="H26" s="82"/>
-      <c r="I26" s="82"/>
-      <c r="J26" s="82"/>
-      <c r="K26" s="82"/>
-      <c r="L26" s="82"/>
+      <c r="F26" s="85"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="85"/>
+      <c r="I26" s="85"/>
+      <c r="J26" s="85"/>
+      <c r="K26" s="85"/>
+      <c r="L26" s="85"/>
       <c r="M26" s="46"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -16840,14 +15693,14 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
-      <c r="K29" s="85" t="s">
+      <c r="K29" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="L29" s="86"/>
-      <c r="M29" s="86"/>
-      <c r="N29" s="86"/>
-      <c r="O29" s="86"/>
-      <c r="P29" s="87"/>
+      <c r="L29" s="89"/>
+      <c r="M29" s="89"/>
+      <c r="N29" s="89"/>
+      <c r="O29" s="89"/>
+      <c r="P29" s="90"/>
       <c r="Q29" s="50"/>
     </row>
     <row r="30" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
@@ -16861,18 +15714,18 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
-      <c r="K30" s="73" t="s">
+      <c r="K30" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="L30" s="74"/>
-      <c r="M30" s="74" t="s">
+      <c r="L30" s="77"/>
+      <c r="M30" s="77" t="s">
         <v>57</v>
       </c>
-      <c r="N30" s="74"/>
-      <c r="O30" s="74" t="s">
+      <c r="N30" s="77"/>
+      <c r="O30" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="P30" s="79"/>
+      <c r="P30" s="82"/>
       <c r="Q30" s="50"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.15">
@@ -16886,12 +15739,12 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
-      <c r="K31" s="75"/>
-      <c r="L31" s="76"/>
-      <c r="M31" s="76"/>
-      <c r="N31" s="76"/>
-      <c r="O31" s="76"/>
-      <c r="P31" s="80"/>
+      <c r="K31" s="78"/>
+      <c r="L31" s="79"/>
+      <c r="M31" s="79"/>
+      <c r="N31" s="79"/>
+      <c r="O31" s="79"/>
+      <c r="P31" s="83"/>
       <c r="Q31" s="50"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.15">
@@ -16905,12 +15758,12 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
-      <c r="K32" s="75"/>
-      <c r="L32" s="76"/>
-      <c r="M32" s="76"/>
-      <c r="N32" s="76"/>
-      <c r="O32" s="76"/>
-      <c r="P32" s="80"/>
+      <c r="K32" s="78"/>
+      <c r="L32" s="79"/>
+      <c r="M32" s="79"/>
+      <c r="N32" s="79"/>
+      <c r="O32" s="79"/>
+      <c r="P32" s="83"/>
       <c r="Q32" s="50"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.15">
@@ -16924,12 +15777,12 @@
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
-      <c r="K33" s="75"/>
-      <c r="L33" s="76"/>
-      <c r="M33" s="76"/>
-      <c r="N33" s="76"/>
-      <c r="O33" s="76"/>
-      <c r="P33" s="80"/>
+      <c r="K33" s="78"/>
+      <c r="L33" s="79"/>
+      <c r="M33" s="79"/>
+      <c r="N33" s="79"/>
+      <c r="O33" s="79"/>
+      <c r="P33" s="83"/>
       <c r="Q33" s="50"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.15">
@@ -16943,12 +15796,12 @@
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="76"/>
-      <c r="M34" s="76"/>
-      <c r="N34" s="76"/>
-      <c r="O34" s="76"/>
-      <c r="P34" s="80"/>
+      <c r="K34" s="78"/>
+      <c r="L34" s="79"/>
+      <c r="M34" s="79"/>
+      <c r="N34" s="79"/>
+      <c r="O34" s="79"/>
+      <c r="P34" s="83"/>
       <c r="Q34" s="50"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.15">
@@ -16962,12 +15815,12 @@
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
-      <c r="K35" s="75"/>
-      <c r="L35" s="76"/>
-      <c r="M35" s="76"/>
-      <c r="N35" s="76"/>
-      <c r="O35" s="76"/>
-      <c r="P35" s="80"/>
+      <c r="K35" s="78"/>
+      <c r="L35" s="79"/>
+      <c r="M35" s="79"/>
+      <c r="N35" s="79"/>
+      <c r="O35" s="79"/>
+      <c r="P35" s="83"/>
       <c r="Q35" s="50"/>
     </row>
     <row r="36" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -16981,12 +15834,12 @@
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
-      <c r="K36" s="77"/>
-      <c r="L36" s="78"/>
-      <c r="M36" s="78"/>
-      <c r="N36" s="78"/>
-      <c r="O36" s="78"/>
-      <c r="P36" s="81"/>
+      <c r="K36" s="80"/>
+      <c r="L36" s="81"/>
+      <c r="M36" s="81"/>
+      <c r="N36" s="81"/>
+      <c r="O36" s="81"/>
+      <c r="P36" s="84"/>
       <c r="Q36" s="50"/>
     </row>
     <row r="37" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -17040,8 +15893,8 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:K1"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="C1" zoomScale="120" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -17058,26 +15911,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="95" t="str">
+      <c r="B1" s="96"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="98" t="str">
         <f>表紙_外部!D10</f>
-        <v>（避難情報システム）</v>
-      </c>
-      <c r="E1" s="96"/>
-      <c r="F1" s="97"/>
+        <v>避難情報システム</v>
+      </c>
+      <c r="E1" s="99"/>
+      <c r="F1" s="100"/>
       <c r="G1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="98" t="s">
+      <c r="H1" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="100"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="103"/>
       <c r="L1" s="21" t="s">
         <v>2</v>
       </c>
@@ -17088,10 +15941,10 @@
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="P1" s="19">
-        <v>42920</v>
+        <v>42927</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -17810,8 +16663,8 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="H1" zoomScale="120" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="C1" zoomScale="120" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -17828,26 +16681,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="95" t="str">
+      <c r="B1" s="96"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="98" t="str">
         <f>表紙_外部!D10</f>
-        <v>（避難情報システム）</v>
-      </c>
-      <c r="E1" s="96"/>
-      <c r="F1" s="97"/>
+        <v>避難情報システム</v>
+      </c>
+      <c r="E1" s="99"/>
+      <c r="F1" s="100"/>
       <c r="G1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="98" t="s">
+      <c r="H1" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="100"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="103"/>
       <c r="L1" s="64" t="s">
         <v>2</v>
       </c>
@@ -17858,10 +16711,10 @@
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="P1" s="19">
-        <v>42920</v>
+        <v>42927</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -18614,10 +17467,10 @@
       <c r="O1" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="P1" s="118" t="s">
+      <c r="P1" s="121" t="s">
         <v>47</v>
       </c>
-      <c r="Q1" s="72"/>
+      <c r="Q1" s="75"/>
     </row>
     <row r="2" spans="1:17" ht="21" x14ac:dyDescent="0.15">
       <c r="A2" s="49"/>
@@ -18634,11 +17487,11 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="83" t="s">
+      <c r="O2" s="86" t="s">
         <v>56</v>
       </c>
-      <c r="P2" s="83"/>
-      <c r="Q2" s="84"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="87"/>
     </row>
     <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A3" s="49"/>
@@ -18683,17 +17536,17 @@
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="88" t="s">
+      <c r="E5" s="91" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="89"/>
-      <c r="L5" s="89"/>
-      <c r="M5" s="89"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="92"/>
+      <c r="K5" s="92"/>
+      <c r="L5" s="92"/>
+      <c r="M5" s="92"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
@@ -18704,15 +17557,15 @@
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="89"/>
-      <c r="F6" s="89"/>
-      <c r="G6" s="89"/>
-      <c r="H6" s="89"/>
-      <c r="I6" s="89"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="89"/>
-      <c r="L6" s="89"/>
-      <c r="M6" s="89"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="92"/>
+      <c r="M6" s="92"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -18723,15 +17576,15 @@
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="89"/>
-      <c r="I7" s="89"/>
-      <c r="J7" s="89"/>
-      <c r="K7" s="89"/>
-      <c r="L7" s="89"/>
-      <c r="M7" s="89"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="92"/>
+      <c r="H7" s="92"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="92"/>
+      <c r="K7" s="92"/>
+      <c r="L7" s="92"/>
+      <c r="M7" s="92"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
@@ -18779,20 +17632,20 @@
       <c r="A10" s="49"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="91" t="str">
+      <c r="D10" s="94" t="str">
         <f>表紙_外部!D10</f>
-        <v>（避難情報システム）</v>
-      </c>
-      <c r="E10" s="91"/>
-      <c r="F10" s="91"/>
-      <c r="G10" s="91"/>
-      <c r="H10" s="91"/>
-      <c r="I10" s="91"/>
-      <c r="J10" s="91"/>
-      <c r="K10" s="91"/>
-      <c r="L10" s="91"/>
-      <c r="M10" s="91"/>
-      <c r="N10" s="91"/>
+        <v>避難情報システム</v>
+      </c>
+      <c r="E10" s="94"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="94"/>
+      <c r="H10" s="94"/>
+      <c r="I10" s="94"/>
+      <c r="J10" s="94"/>
+      <c r="K10" s="94"/>
+      <c r="L10" s="94"/>
+      <c r="M10" s="94"/>
+      <c r="N10" s="94"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="50"/>
@@ -18801,17 +17654,17 @@
       <c r="A11" s="49"/>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="91"/>
-      <c r="F11" s="91"/>
-      <c r="G11" s="91"/>
-      <c r="H11" s="91"/>
-      <c r="I11" s="91"/>
-      <c r="J11" s="91"/>
-      <c r="K11" s="91"/>
-      <c r="L11" s="91"/>
-      <c r="M11" s="91"/>
-      <c r="N11" s="91"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="94"/>
+      <c r="H11" s="94"/>
+      <c r="I11" s="94"/>
+      <c r="J11" s="94"/>
+      <c r="K11" s="94"/>
+      <c r="L11" s="94"/>
+      <c r="M11" s="94"/>
+      <c r="N11" s="94"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="50"/>
@@ -18820,17 +17673,17 @@
       <c r="A12" s="49"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="91"/>
-      <c r="F12" s="91"/>
-      <c r="G12" s="91"/>
-      <c r="H12" s="91"/>
-      <c r="I12" s="91"/>
-      <c r="J12" s="91"/>
-      <c r="K12" s="91"/>
-      <c r="L12" s="91"/>
-      <c r="M12" s="91"/>
-      <c r="N12" s="91"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="94"/>
+      <c r="I12" s="94"/>
+      <c r="J12" s="94"/>
+      <c r="K12" s="94"/>
+      <c r="L12" s="94"/>
+      <c r="M12" s="94"/>
+      <c r="N12" s="94"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="50"/>
@@ -18840,17 +17693,17 @@
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="90" t="s">
+      <c r="E13" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="F13" s="90"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="90"/>
-      <c r="I13" s="90"/>
-      <c r="J13" s="90"/>
-      <c r="K13" s="90"/>
-      <c r="L13" s="90"/>
-      <c r="M13" s="90"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="93"/>
+      <c r="K13" s="93"/>
+      <c r="L13" s="93"/>
+      <c r="M13" s="93"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
@@ -18861,15 +17714,15 @@
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="90"/>
-      <c r="L14" s="90"/>
-      <c r="M14" s="90"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="93"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="93"/>
+      <c r="K14" s="93"/>
+      <c r="L14" s="93"/>
+      <c r="M14" s="93"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -18880,15 +17733,15 @@
       <c r="B15" s="16"/>
       <c r="C15" s="16"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="90"/>
-      <c r="J15" s="90"/>
-      <c r="K15" s="90"/>
-      <c r="L15" s="90"/>
-      <c r="M15" s="90"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="93"/>
+      <c r="H15" s="93"/>
+      <c r="I15" s="93"/>
+      <c r="J15" s="93"/>
+      <c r="K15" s="93"/>
+      <c r="L15" s="93"/>
+      <c r="M15" s="93"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
@@ -18899,15 +17752,15 @@
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="90"/>
-      <c r="I16" s="90"/>
-      <c r="J16" s="90"/>
-      <c r="K16" s="90"/>
-      <c r="L16" s="90"/>
-      <c r="M16" s="90"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="93"/>
+      <c r="H16" s="93"/>
+      <c r="I16" s="93"/>
+      <c r="J16" s="93"/>
+      <c r="K16" s="93"/>
+      <c r="L16" s="93"/>
+      <c r="M16" s="93"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
@@ -18918,15 +17771,15 @@
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="90"/>
-      <c r="H17" s="90"/>
-      <c r="I17" s="90"/>
-      <c r="J17" s="90"/>
-      <c r="K17" s="90"/>
-      <c r="L17" s="90"/>
-      <c r="M17" s="90"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="93"/>
+      <c r="I17" s="93"/>
+      <c r="J17" s="93"/>
+      <c r="K17" s="93"/>
+      <c r="L17" s="93"/>
+      <c r="M17" s="93"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
@@ -18957,15 +17810,15 @@
       <c r="C19" s="16"/>
       <c r="D19" s="2"/>
       <c r="E19" s="45"/>
-      <c r="F19" s="117" t="s">
+      <c r="F19" s="120" t="s">
         <v>85</v>
       </c>
-      <c r="G19" s="117"/>
-      <c r="H19" s="117"/>
-      <c r="I19" s="117"/>
-      <c r="J19" s="117"/>
-      <c r="K19" s="117"/>
-      <c r="L19" s="117"/>
+      <c r="G19" s="120"/>
+      <c r="H19" s="120"/>
+      <c r="I19" s="120"/>
+      <c r="J19" s="120"/>
+      <c r="K19" s="120"/>
+      <c r="L19" s="120"/>
       <c r="M19" s="46"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -18978,13 +17831,13 @@
       <c r="C20" s="16"/>
       <c r="D20" s="2"/>
       <c r="E20" s="46"/>
-      <c r="F20" s="117"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="117"/>
-      <c r="I20" s="117"/>
-      <c r="J20" s="117"/>
-      <c r="K20" s="117"/>
-      <c r="L20" s="117"/>
+      <c r="F20" s="120"/>
+      <c r="G20" s="120"/>
+      <c r="H20" s="120"/>
+      <c r="I20" s="120"/>
+      <c r="J20" s="120"/>
+      <c r="K20" s="120"/>
+      <c r="L20" s="120"/>
       <c r="M20" s="46"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -18997,13 +17850,13 @@
       <c r="C21" s="16"/>
       <c r="D21" s="2"/>
       <c r="E21" s="46"/>
-      <c r="F21" s="117"/>
-      <c r="G21" s="117"/>
-      <c r="H21" s="117"/>
-      <c r="I21" s="117"/>
-      <c r="J21" s="117"/>
-      <c r="K21" s="117"/>
-      <c r="L21" s="117"/>
+      <c r="F21" s="120"/>
+      <c r="G21" s="120"/>
+      <c r="H21" s="120"/>
+      <c r="I21" s="120"/>
+      <c r="J21" s="120"/>
+      <c r="K21" s="120"/>
+      <c r="L21" s="120"/>
       <c r="M21" s="46"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -19016,13 +17869,13 @@
       <c r="C22" s="16"/>
       <c r="D22" s="2"/>
       <c r="E22" s="46"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="117"/>
-      <c r="I22" s="117"/>
-      <c r="J22" s="117"/>
-      <c r="K22" s="117"/>
-      <c r="L22" s="117"/>
+      <c r="F22" s="120"/>
+      <c r="G22" s="120"/>
+      <c r="H22" s="120"/>
+      <c r="I22" s="120"/>
+      <c r="J22" s="120"/>
+      <c r="K22" s="120"/>
+      <c r="L22" s="120"/>
       <c r="M22" s="46"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -19035,13 +17888,13 @@
       <c r="C23" s="16"/>
       <c r="D23" s="2"/>
       <c r="E23" s="46"/>
-      <c r="F23" s="117"/>
-      <c r="G23" s="117"/>
-      <c r="H23" s="117"/>
-      <c r="I23" s="117"/>
-      <c r="J23" s="117"/>
-      <c r="K23" s="117"/>
-      <c r="L23" s="117"/>
+      <c r="F23" s="120"/>
+      <c r="G23" s="120"/>
+      <c r="H23" s="120"/>
+      <c r="I23" s="120"/>
+      <c r="J23" s="120"/>
+      <c r="K23" s="120"/>
+      <c r="L23" s="120"/>
       <c r="M23" s="46"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -19054,13 +17907,13 @@
       <c r="C24" s="16"/>
       <c r="D24" s="2"/>
       <c r="E24" s="46"/>
-      <c r="F24" s="117"/>
-      <c r="G24" s="117"/>
-      <c r="H24" s="117"/>
-      <c r="I24" s="117"/>
-      <c r="J24" s="117"/>
-      <c r="K24" s="117"/>
-      <c r="L24" s="117"/>
+      <c r="F24" s="120"/>
+      <c r="G24" s="120"/>
+      <c r="H24" s="120"/>
+      <c r="I24" s="120"/>
+      <c r="J24" s="120"/>
+      <c r="K24" s="120"/>
+      <c r="L24" s="120"/>
       <c r="M24" s="46"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -19073,13 +17926,13 @@
       <c r="C25" s="16"/>
       <c r="D25" s="2"/>
       <c r="E25" s="46"/>
-      <c r="F25" s="117"/>
-      <c r="G25" s="117"/>
-      <c r="H25" s="117"/>
-      <c r="I25" s="117"/>
-      <c r="J25" s="117"/>
-      <c r="K25" s="117"/>
-      <c r="L25" s="117"/>
+      <c r="F25" s="120"/>
+      <c r="G25" s="120"/>
+      <c r="H25" s="120"/>
+      <c r="I25" s="120"/>
+      <c r="J25" s="120"/>
+      <c r="K25" s="120"/>
+      <c r="L25" s="120"/>
       <c r="M25" s="46"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -19133,16 +17986,16 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="114" t="s">
+      <c r="I28" s="117" t="s">
         <v>61</v>
       </c>
-      <c r="J28" s="115"/>
-      <c r="K28" s="115"/>
-      <c r="L28" s="115"/>
-      <c r="M28" s="115"/>
-      <c r="N28" s="115"/>
-      <c r="O28" s="115"/>
-      <c r="P28" s="116"/>
+      <c r="J28" s="118"/>
+      <c r="K28" s="118"/>
+      <c r="L28" s="118"/>
+      <c r="M28" s="118"/>
+      <c r="N28" s="118"/>
+      <c r="O28" s="118"/>
+      <c r="P28" s="119"/>
       <c r="Q28" s="50"/>
     </row>
     <row r="29" spans="1:17" ht="17.25" x14ac:dyDescent="0.15">
@@ -19154,22 +18007,22 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="85" t="s">
+      <c r="I29" s="88" t="s">
         <v>90</v>
       </c>
-      <c r="J29" s="86"/>
-      <c r="K29" s="119" t="s">
+      <c r="J29" s="89"/>
+      <c r="K29" s="122" t="s">
         <v>89</v>
       </c>
-      <c r="L29" s="86"/>
-      <c r="M29" s="120" t="s">
+      <c r="L29" s="89"/>
+      <c r="M29" s="123" t="s">
         <v>57</v>
       </c>
-      <c r="N29" s="120"/>
-      <c r="O29" s="120" t="s">
+      <c r="N29" s="123"/>
+      <c r="O29" s="123" t="s">
         <v>58</v>
       </c>
-      <c r="P29" s="123"/>
+      <c r="P29" s="126"/>
       <c r="Q29" s="50"/>
     </row>
     <row r="30" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -19181,14 +18034,14 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="75"/>
-      <c r="J30" s="76"/>
-      <c r="K30" s="121"/>
-      <c r="L30" s="76"/>
-      <c r="M30" s="76"/>
-      <c r="N30" s="76"/>
-      <c r="O30" s="76"/>
-      <c r="P30" s="80"/>
+      <c r="I30" s="78"/>
+      <c r="J30" s="79"/>
+      <c r="K30" s="124"/>
+      <c r="L30" s="79"/>
+      <c r="M30" s="79"/>
+      <c r="N30" s="79"/>
+      <c r="O30" s="79"/>
+      <c r="P30" s="83"/>
       <c r="Q30" s="50"/>
     </row>
     <row r="31" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -19200,14 +18053,14 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="75"/>
-      <c r="J31" s="76"/>
-      <c r="K31" s="121"/>
-      <c r="L31" s="76"/>
-      <c r="M31" s="76"/>
-      <c r="N31" s="76"/>
-      <c r="O31" s="76"/>
-      <c r="P31" s="80"/>
+      <c r="I31" s="78"/>
+      <c r="J31" s="79"/>
+      <c r="K31" s="124"/>
+      <c r="L31" s="79"/>
+      <c r="M31" s="79"/>
+      <c r="N31" s="79"/>
+      <c r="O31" s="79"/>
+      <c r="P31" s="83"/>
       <c r="Q31" s="50"/>
     </row>
     <row r="32" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -19219,14 +18072,14 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="75"/>
-      <c r="J32" s="76"/>
-      <c r="K32" s="121"/>
-      <c r="L32" s="76"/>
-      <c r="M32" s="76"/>
-      <c r="N32" s="76"/>
-      <c r="O32" s="76"/>
-      <c r="P32" s="80"/>
+      <c r="I32" s="78"/>
+      <c r="J32" s="79"/>
+      <c r="K32" s="124"/>
+      <c r="L32" s="79"/>
+      <c r="M32" s="79"/>
+      <c r="N32" s="79"/>
+      <c r="O32" s="79"/>
+      <c r="P32" s="83"/>
       <c r="Q32" s="50"/>
     </row>
     <row r="33" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -19238,14 +18091,14 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="75"/>
-      <c r="J33" s="76"/>
-      <c r="K33" s="121"/>
-      <c r="L33" s="76"/>
-      <c r="M33" s="76"/>
-      <c r="N33" s="76"/>
-      <c r="O33" s="76"/>
-      <c r="P33" s="80"/>
+      <c r="I33" s="78"/>
+      <c r="J33" s="79"/>
+      <c r="K33" s="124"/>
+      <c r="L33" s="79"/>
+      <c r="M33" s="79"/>
+      <c r="N33" s="79"/>
+      <c r="O33" s="79"/>
+      <c r="P33" s="83"/>
       <c r="Q33" s="50"/>
     </row>
     <row r="34" spans="1:17" ht="12.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -19257,14 +18110,14 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="75"/>
-      <c r="J34" s="76"/>
-      <c r="K34" s="121"/>
-      <c r="L34" s="76"/>
-      <c r="M34" s="76"/>
-      <c r="N34" s="76"/>
-      <c r="O34" s="76"/>
-      <c r="P34" s="80"/>
+      <c r="I34" s="78"/>
+      <c r="J34" s="79"/>
+      <c r="K34" s="124"/>
+      <c r="L34" s="79"/>
+      <c r="M34" s="79"/>
+      <c r="N34" s="79"/>
+      <c r="O34" s="79"/>
+      <c r="P34" s="83"/>
       <c r="Q34" s="50"/>
     </row>
     <row r="35" spans="1:17" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -19276,14 +18129,14 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="77"/>
-      <c r="J35" s="78"/>
-      <c r="K35" s="122"/>
-      <c r="L35" s="78"/>
-      <c r="M35" s="78"/>
-      <c r="N35" s="78"/>
-      <c r="O35" s="78"/>
-      <c r="P35" s="81"/>
+      <c r="I35" s="80"/>
+      <c r="J35" s="81"/>
+      <c r="K35" s="125"/>
+      <c r="L35" s="81"/>
+      <c r="M35" s="81"/>
+      <c r="N35" s="81"/>
+      <c r="O35" s="81"/>
+      <c r="P35" s="84"/>
       <c r="Q35" s="50"/>
     </row>
     <row r="36" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -19361,26 +18214,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="95" t="str">
+      <c r="B1" s="96"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="98" t="str">
         <f>表紙_外部!D10</f>
-        <v>（避難情報システム）</v>
-      </c>
-      <c r="E1" s="96"/>
-      <c r="F1" s="97"/>
+        <v>避難情報システム</v>
+      </c>
+      <c r="E1" s="99"/>
+      <c r="F1" s="100"/>
       <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="98" t="s">
+      <c r="H1" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="100"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="103"/>
       <c r="L1" s="4" t="s">
         <v>2</v>
       </c>
@@ -19460,58 +18313,58 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
-      <c r="B6" s="125" t="s">
+      <c r="B6" s="127" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="125"/>
-      <c r="D6" s="125"/>
-      <c r="E6" s="76">
+      <c r="C6" s="127"/>
+      <c r="D6" s="127"/>
+      <c r="E6" s="79">
         <v>2</v>
       </c>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
       <c r="H6" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="124" t="s">
-        <v>155</v>
-      </c>
-      <c r="J6" s="124"/>
-      <c r="K6" s="124"/>
+      <c r="I6" s="128" t="s">
+        <v>146</v>
+      </c>
+      <c r="J6" s="128"/>
+      <c r="K6" s="128"/>
       <c r="L6" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="M6" s="124"/>
-      <c r="N6" s="124"/>
-      <c r="O6" s="124"/>
+      <c r="M6" s="128"/>
+      <c r="N6" s="128"/>
+      <c r="O6" s="128"/>
       <c r="P6" s="9"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
-      <c r="B7" s="125" t="s">
+      <c r="B7" s="127" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="125"/>
-      <c r="D7" s="125"/>
-      <c r="E7" s="76" t="s">
-        <v>154</v>
-      </c>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
+      <c r="C7" s="127"/>
+      <c r="D7" s="127"/>
+      <c r="E7" s="79" t="s">
+        <v>145</v>
+      </c>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
       <c r="H7" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="124" t="s">
-        <v>156</v>
-      </c>
-      <c r="J7" s="124"/>
-      <c r="K7" s="124"/>
+      <c r="I7" s="128" t="s">
+        <v>147</v>
+      </c>
+      <c r="J7" s="128"/>
+      <c r="K7" s="128"/>
       <c r="L7" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="M7" s="124"/>
-      <c r="N7" s="124"/>
-      <c r="O7" s="124"/>
+      <c r="M7" s="128"/>
+      <c r="N7" s="128"/>
+      <c r="O7" s="128"/>
       <c r="P7" s="9"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
@@ -19816,7 +18669,6 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="9"/>
-      <c r="L24" s="29"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="9"/>
@@ -20114,17 +18966,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="M7:O7"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="I6:K6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="M7:O7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -20143,7 +18995,7 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="C1" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="C1" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="D1" sqref="D1:F1"/>
     </sheetView>
   </sheetViews>
@@ -20165,26 +19017,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="95" t="str">
+      <c r="B1" s="96"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="98" t="str">
         <f>表紙_外部!D10</f>
-        <v>（避難情報システム）</v>
-      </c>
-      <c r="E1" s="96"/>
-      <c r="F1" s="97"/>
+        <v>避難情報システム</v>
+      </c>
+      <c r="E1" s="99"/>
+      <c r="F1" s="100"/>
       <c r="G1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="98" t="s">
+      <c r="H1" s="101" t="s">
         <v>88</v>
       </c>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="100"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="103"/>
       <c r="L1" s="21" t="s">
         <v>2</v>
       </c>
@@ -20287,7 +19139,7 @@
         <v>45</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E7" s="39"/>
       <c r="F7" s="39"/>
@@ -20309,10 +19161,10 @@
       <c r="D8" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="113" t="s">
+      <c r="E8" s="112" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="113"/>
+      <c r="F8" s="112"/>
       <c r="G8" s="35" t="s">
         <v>52</v>
       </c>
@@ -20322,11 +19174,11 @@
       <c r="I8" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="J8" s="113" t="s">
+      <c r="J8" s="112" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="113"/>
-      <c r="L8" s="113"/>
+      <c r="K8" s="112"/>
+      <c r="L8" s="112"/>
       <c r="M8" s="26"/>
       <c r="N8" s="26"/>
       <c r="O8" s="2"/>
@@ -20340,24 +19192,24 @@
         <f>ROW()-8</f>
         <v>1</v>
       </c>
-      <c r="E9" s="95" t="s">
-        <v>157</v>
-      </c>
-      <c r="F9" s="97"/>
+      <c r="E9" s="98" t="s">
+        <v>148</v>
+      </c>
+      <c r="F9" s="100"/>
       <c r="G9" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="H9" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="I9" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="J9" s="98" t="s">
         <v>161</v>
       </c>
-      <c r="H9" s="31" t="s">
-        <v>165</v>
-      </c>
-      <c r="I9" s="31" t="s">
-        <v>169</v>
-      </c>
-      <c r="J9" s="95" t="s">
-        <v>170</v>
-      </c>
-      <c r="K9" s="96"/>
-      <c r="L9" s="97"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="100"/>
       <c r="M9" s="26"/>
       <c r="N9" s="26"/>
       <c r="O9" s="2"/>
@@ -20371,22 +19223,22 @@
         <f t="shared" ref="D10:D26" si="0">ROW()-8</f>
         <v>2</v>
       </c>
-      <c r="E10" s="95" t="s">
-        <v>158</v>
-      </c>
-      <c r="F10" s="97"/>
+      <c r="E10" s="98" t="s">
+        <v>149</v>
+      </c>
+      <c r="F10" s="100"/>
       <c r="G10" s="31" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="H10" s="31" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="I10" s="31"/>
-      <c r="J10" s="95" t="s">
-        <v>170</v>
-      </c>
-      <c r="K10" s="96"/>
-      <c r="L10" s="97"/>
+      <c r="J10" s="98" t="s">
+        <v>161</v>
+      </c>
+      <c r="K10" s="99"/>
+      <c r="L10" s="100"/>
       <c r="M10" s="26"/>
       <c r="N10" s="26"/>
       <c r="O10" s="2"/>
@@ -20400,20 +19252,20 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E11" s="95" t="s">
-        <v>159</v>
-      </c>
-      <c r="F11" s="97"/>
+      <c r="E11" s="98" t="s">
+        <v>150</v>
+      </c>
+      <c r="F11" s="100"/>
       <c r="G11" s="31" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="H11" s="31" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="I11" s="31"/>
-      <c r="J11" s="95"/>
-      <c r="K11" s="96"/>
-      <c r="L11" s="97"/>
+      <c r="J11" s="98"/>
+      <c r="K11" s="99"/>
+      <c r="L11" s="100"/>
       <c r="M11" s="26"/>
       <c r="N11" s="26"/>
       <c r="O11" s="2"/>
@@ -20427,20 +19279,20 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E12" s="95" t="s">
-        <v>160</v>
-      </c>
-      <c r="F12" s="97"/>
+      <c r="E12" s="98" t="s">
+        <v>151</v>
+      </c>
+      <c r="F12" s="100"/>
       <c r="G12" s="31" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="H12" s="31" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="I12" s="31"/>
-      <c r="J12" s="95"/>
-      <c r="K12" s="96"/>
-      <c r="L12" s="97"/>
+      <c r="J12" s="98"/>
+      <c r="K12" s="99"/>
+      <c r="L12" s="100"/>
       <c r="M12" s="26"/>
       <c r="N12" s="26"/>
       <c r="O12" s="2"/>
@@ -20454,14 +19306,14 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E13" s="95"/>
-      <c r="F13" s="97"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="100"/>
       <c r="G13" s="31"/>
       <c r="H13" s="31"/>
       <c r="I13" s="31"/>
-      <c r="J13" s="95"/>
-      <c r="K13" s="96"/>
-      <c r="L13" s="97"/>
+      <c r="J13" s="98"/>
+      <c r="K13" s="99"/>
+      <c r="L13" s="100"/>
       <c r="M13" s="26"/>
       <c r="N13" s="26"/>
       <c r="O13" s="2"/>
@@ -20475,14 +19327,14 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E14" s="95"/>
-      <c r="F14" s="97"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="100"/>
       <c r="G14" s="31"/>
       <c r="H14" s="31"/>
       <c r="I14" s="31"/>
-      <c r="J14" s="95"/>
-      <c r="K14" s="96"/>
-      <c r="L14" s="97"/>
+      <c r="J14" s="98"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="100"/>
       <c r="M14" s="26"/>
       <c r="N14" s="26"/>
       <c r="O14" s="2"/>
@@ -20496,14 +19348,14 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E15" s="95"/>
-      <c r="F15" s="97"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="100"/>
       <c r="G15" s="31"/>
       <c r="H15" s="31"/>
       <c r="I15" s="31"/>
-      <c r="J15" s="95"/>
-      <c r="K15" s="96"/>
-      <c r="L15" s="97"/>
+      <c r="J15" s="98"/>
+      <c r="K15" s="99"/>
+      <c r="L15" s="100"/>
       <c r="M15" s="26"/>
       <c r="N15" s="26"/>
       <c r="O15" s="2"/>
@@ -20517,14 +19369,14 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E16" s="95"/>
-      <c r="F16" s="97"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="100"/>
       <c r="G16" s="31"/>
       <c r="H16" s="31"/>
       <c r="I16" s="31"/>
-      <c r="J16" s="95"/>
-      <c r="K16" s="96"/>
-      <c r="L16" s="97"/>
+      <c r="J16" s="98"/>
+      <c r="K16" s="99"/>
+      <c r="L16" s="100"/>
       <c r="M16" s="26"/>
       <c r="N16" s="26"/>
       <c r="O16" s="2"/>
@@ -20538,14 +19390,14 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E17" s="95"/>
-      <c r="F17" s="97"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="100"/>
       <c r="G17" s="31"/>
       <c r="H17" s="31"/>
       <c r="I17" s="31"/>
-      <c r="J17" s="95"/>
-      <c r="K17" s="96"/>
-      <c r="L17" s="97"/>
+      <c r="J17" s="98"/>
+      <c r="K17" s="99"/>
+      <c r="L17" s="100"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
       <c r="O17" s="2"/>
@@ -20559,14 +19411,14 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="E18" s="95"/>
-      <c r="F18" s="97"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="100"/>
       <c r="G18" s="31"/>
       <c r="H18" s="31"/>
       <c r="I18" s="31"/>
-      <c r="J18" s="95"/>
-      <c r="K18" s="96"/>
-      <c r="L18" s="97"/>
+      <c r="J18" s="98"/>
+      <c r="K18" s="99"/>
+      <c r="L18" s="100"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -20580,14 +19432,14 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E19" s="95"/>
-      <c r="F19" s="97"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="100"/>
       <c r="G19" s="31"/>
       <c r="H19" s="31"/>
       <c r="I19" s="31"/>
-      <c r="J19" s="95"/>
-      <c r="K19" s="96"/>
-      <c r="L19" s="97"/>
+      <c r="J19" s="98"/>
+      <c r="K19" s="99"/>
+      <c r="L19" s="100"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -20601,14 +19453,14 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E20" s="95"/>
-      <c r="F20" s="97"/>
+      <c r="E20" s="98"/>
+      <c r="F20" s="100"/>
       <c r="G20" s="31"/>
       <c r="H20" s="31"/>
       <c r="I20" s="31"/>
-      <c r="J20" s="95"/>
-      <c r="K20" s="96"/>
-      <c r="L20" s="97"/>
+      <c r="J20" s="98"/>
+      <c r="K20" s="99"/>
+      <c r="L20" s="100"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -20622,14 +19474,14 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E21" s="95"/>
-      <c r="F21" s="97"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="100"/>
       <c r="G21" s="31"/>
       <c r="H21" s="31"/>
       <c r="I21" s="31"/>
-      <c r="J21" s="95"/>
-      <c r="K21" s="96"/>
-      <c r="L21" s="97"/>
+      <c r="J21" s="98"/>
+      <c r="K21" s="99"/>
+      <c r="L21" s="100"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -20643,14 +19495,14 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E22" s="95"/>
-      <c r="F22" s="97"/>
+      <c r="E22" s="98"/>
+      <c r="F22" s="100"/>
       <c r="G22" s="31"/>
       <c r="H22" s="31"/>
       <c r="I22" s="31"/>
-      <c r="J22" s="95"/>
-      <c r="K22" s="96"/>
-      <c r="L22" s="97"/>
+      <c r="J22" s="98"/>
+      <c r="K22" s="99"/>
+      <c r="L22" s="100"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -20664,14 +19516,14 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="E23" s="95"/>
-      <c r="F23" s="97"/>
+      <c r="E23" s="98"/>
+      <c r="F23" s="100"/>
       <c r="G23" s="31"/>
       <c r="H23" s="31"/>
       <c r="I23" s="31"/>
-      <c r="J23" s="95"/>
-      <c r="K23" s="96"/>
-      <c r="L23" s="97"/>
+      <c r="J23" s="98"/>
+      <c r="K23" s="99"/>
+      <c r="L23" s="100"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -20685,14 +19537,14 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="E24" s="95"/>
-      <c r="F24" s="97"/>
+      <c r="E24" s="98"/>
+      <c r="F24" s="100"/>
       <c r="G24" s="31"/>
       <c r="H24" s="31"/>
       <c r="I24" s="31"/>
-      <c r="J24" s="95"/>
-      <c r="K24" s="96"/>
-      <c r="L24" s="97"/>
+      <c r="J24" s="98"/>
+      <c r="K24" s="99"/>
+      <c r="L24" s="100"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -20706,14 +19558,14 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="E25" s="95"/>
-      <c r="F25" s="97"/>
+      <c r="E25" s="98"/>
+      <c r="F25" s="100"/>
       <c r="G25" s="31"/>
       <c r="H25" s="31"/>
       <c r="I25" s="31"/>
-      <c r="J25" s="95"/>
-      <c r="K25" s="96"/>
-      <c r="L25" s="97"/>
+      <c r="J25" s="98"/>
+      <c r="K25" s="99"/>
+      <c r="L25" s="100"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -20727,14 +19579,14 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="E26" s="95"/>
-      <c r="F26" s="97"/>
+      <c r="E26" s="98"/>
+      <c r="F26" s="100"/>
       <c r="G26" s="31"/>
       <c r="H26" s="31"/>
       <c r="I26" s="31"/>
-      <c r="J26" s="95"/>
-      <c r="K26" s="96"/>
-      <c r="L26" s="97"/>
+      <c r="J26" s="98"/>
+      <c r="K26" s="99"/>
+      <c r="L26" s="100"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -20994,12 +19846,25 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="J18:L18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="J19:L19"/>
     <mergeCell ref="E16:F16"/>
@@ -21016,25 +19881,12 @@
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -21053,8 +19905,8 @@
   </sheetPr>
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="B1" zoomScale="128" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:F1"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="F1" zoomScale="128" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -21071,26 +19923,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="95" t="str">
+      <c r="B1" s="96"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="98" t="str">
         <f>表紙_外部!D10</f>
-        <v>（避難情報システム）</v>
-      </c>
-      <c r="E1" s="96"/>
-      <c r="F1" s="97"/>
+        <v>避難情報システム</v>
+      </c>
+      <c r="E1" s="99"/>
+      <c r="F1" s="100"/>
       <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="98" t="s">
+      <c r="H1" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="100"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="103"/>
       <c r="L1" s="4" t="s">
         <v>2</v>
       </c>
@@ -21101,7 +19953,7 @@
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P1" s="19">
         <v>42920</v>
@@ -21175,7 +20027,7 @@
       <c r="B6" s="16"/>
       <c r="C6" s="1"/>
       <c r="D6" s="16" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -21258,7 +20110,7 @@
         <v>70</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -21280,7 +20132,7 @@
         <v>71</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -21302,7 +20154,7 @@
         <v>72</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -21867,7 +20719,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:F1"/>
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -21884,40 +20736,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="95" t="str">
+      <c r="B1" s="96"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="98" t="str">
         <f>表紙_外部!D10</f>
-        <v>（避難情報システム）</v>
-      </c>
-      <c r="E1" s="96"/>
-      <c r="F1" s="97"/>
+        <v>避難情報システム</v>
+      </c>
+      <c r="E1" s="99"/>
+      <c r="F1" s="100"/>
       <c r="G1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="98" t="s">
+      <c r="H1" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="100"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="103"/>
       <c r="L1" s="68" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="67" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="N1" s="68" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="P1" s="19">
-        <v>42920</v>
+        <v>42927</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -21942,7 +20794,7 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="B4" s="62" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C4" s="62" t="s">
         <v>13</v>
@@ -22004,22 +20856,22 @@
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="E7" s="101" t="s">
+        <v>131</v>
+      </c>
+      <c r="E7" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="103"/>
-      <c r="G7" s="101" t="s">
+      <c r="F7" s="107"/>
+      <c r="G7" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="103"/>
-      <c r="I7" s="101" t="s">
+      <c r="H7" s="107"/>
+      <c r="I7" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="102"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="103"/>
+      <c r="J7" s="110"/>
+      <c r="K7" s="110"/>
+      <c r="L7" s="107"/>
       <c r="M7" s="68" t="s">
         <v>19</v>
       </c>
@@ -22040,19 +20892,19 @@
         <v>1</v>
       </c>
       <c r="E8" s="104" t="s">
-        <v>136</v>
-      </c>
-      <c r="F8" s="106"/>
+        <v>130</v>
+      </c>
+      <c r="F8" s="105"/>
       <c r="G8" s="104" t="s">
-        <v>135</v>
-      </c>
-      <c r="H8" s="106"/>
+        <v>129</v>
+      </c>
+      <c r="H8" s="105"/>
       <c r="I8" s="104" t="s">
-        <v>134</v>
-      </c>
-      <c r="J8" s="105"/>
-      <c r="K8" s="105"/>
-      <c r="L8" s="106"/>
+        <v>128</v>
+      </c>
+      <c r="J8" s="108"/>
+      <c r="K8" s="108"/>
+      <c r="L8" s="105"/>
       <c r="M8" s="23" t="s">
         <v>22</v>
       </c>
@@ -22073,19 +20925,19 @@
         <v>2</v>
       </c>
       <c r="E9" s="104" t="s">
-        <v>133</v>
-      </c>
-      <c r="F9" s="106"/>
+        <v>127</v>
+      </c>
+      <c r="F9" s="105"/>
       <c r="G9" s="104" t="s">
-        <v>132</v>
-      </c>
-      <c r="H9" s="106"/>
+        <v>126</v>
+      </c>
+      <c r="H9" s="105"/>
       <c r="I9" s="104" t="s">
-        <v>131</v>
-      </c>
-      <c r="J9" s="105"/>
-      <c r="K9" s="105"/>
-      <c r="L9" s="106"/>
+        <v>125</v>
+      </c>
+      <c r="J9" s="108"/>
+      <c r="K9" s="108"/>
+      <c r="L9" s="105"/>
       <c r="M9" s="23" t="s">
         <v>23</v>
       </c>
@@ -22106,17 +20958,17 @@
         <v>3</v>
       </c>
       <c r="E10" s="104"/>
-      <c r="F10" s="106"/>
+      <c r="F10" s="105"/>
       <c r="G10" s="104" t="s">
-        <v>130</v>
-      </c>
-      <c r="H10" s="106"/>
+        <v>124</v>
+      </c>
+      <c r="H10" s="105"/>
       <c r="I10" s="104" t="s">
-        <v>129</v>
-      </c>
-      <c r="J10" s="105"/>
-      <c r="K10" s="105"/>
-      <c r="L10" s="106"/>
+        <v>123</v>
+      </c>
+      <c r="J10" s="108"/>
+      <c r="K10" s="108"/>
+      <c r="L10" s="105"/>
       <c r="M10" s="23" t="s">
         <v>24</v>
       </c>
@@ -22137,19 +20989,19 @@
         <v>4</v>
       </c>
       <c r="E11" s="104"/>
-      <c r="F11" s="106"/>
+      <c r="F11" s="105"/>
       <c r="G11" s="104" t="s">
-        <v>128</v>
-      </c>
-      <c r="H11" s="106"/>
+        <v>122</v>
+      </c>
+      <c r="H11" s="105"/>
       <c r="I11" s="104" t="s">
-        <v>127</v>
-      </c>
-      <c r="J11" s="105"/>
-      <c r="K11" s="105"/>
-      <c r="L11" s="106"/>
+        <v>121</v>
+      </c>
+      <c r="J11" s="108"/>
+      <c r="K11" s="108"/>
+      <c r="L11" s="105"/>
       <c r="M11" s="23" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="N11" s="23" t="s">
         <v>48</v>
@@ -22168,22 +21020,28 @@
         <v>5</v>
       </c>
       <c r="E12" s="104" t="s">
-        <v>125</v>
-      </c>
-      <c r="F12" s="106"/>
+        <v>119</v>
+      </c>
+      <c r="F12" s="105"/>
       <c r="G12" s="104" t="s">
-        <v>124</v>
-      </c>
-      <c r="H12" s="106"/>
+        <v>118</v>
+      </c>
+      <c r="H12" s="105"/>
       <c r="I12" s="104" t="s">
-        <v>123</v>
-      </c>
-      <c r="J12" s="105"/>
-      <c r="K12" s="105"/>
-      <c r="L12" s="106"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
+        <v>117</v>
+      </c>
+      <c r="J12" s="108"/>
+      <c r="K12" s="108"/>
+      <c r="L12" s="105"/>
+      <c r="M12" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="N12" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="O12" s="23" t="s">
+        <v>166</v>
+      </c>
       <c r="P12" s="9"/>
     </row>
     <row r="13" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -22195,20 +21053,26 @@
         <v>6</v>
       </c>
       <c r="E13" s="104"/>
-      <c r="F13" s="106"/>
+      <c r="F13" s="105"/>
       <c r="G13" s="104" t="s">
-        <v>122</v>
-      </c>
-      <c r="H13" s="106"/>
+        <v>116</v>
+      </c>
+      <c r="H13" s="105"/>
       <c r="I13" s="104" t="s">
-        <v>122</v>
-      </c>
-      <c r="J13" s="105"/>
-      <c r="K13" s="105"/>
-      <c r="L13" s="106"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
+        <v>116</v>
+      </c>
+      <c r="J13" s="108"/>
+      <c r="K13" s="108"/>
+      <c r="L13" s="105"/>
+      <c r="M13" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="N13" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="O13" s="23" t="s">
+        <v>26</v>
+      </c>
       <c r="P13" s="9"/>
     </row>
     <row r="14" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -22220,22 +21084,28 @@
         <v>7</v>
       </c>
       <c r="E14" s="104" t="s">
-        <v>121</v>
-      </c>
-      <c r="F14" s="106"/>
+        <v>115</v>
+      </c>
+      <c r="F14" s="105"/>
       <c r="G14" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="106"/>
+      <c r="H14" s="105"/>
       <c r="I14" s="104" t="s">
-        <v>120</v>
-      </c>
-      <c r="J14" s="105"/>
-      <c r="K14" s="105"/>
-      <c r="L14" s="106"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
+        <v>114</v>
+      </c>
+      <c r="J14" s="108"/>
+      <c r="K14" s="108"/>
+      <c r="L14" s="105"/>
+      <c r="M14" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="N14" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="O14" s="23" t="s">
+        <v>26</v>
+      </c>
       <c r="P14" s="9"/>
     </row>
     <row r="15" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -22247,20 +21117,26 @@
         <v>8</v>
       </c>
       <c r="E15" s="104"/>
-      <c r="F15" s="106"/>
+      <c r="F15" s="105"/>
       <c r="G15" s="104" t="s">
-        <v>119</v>
-      </c>
-      <c r="H15" s="106"/>
+        <v>113</v>
+      </c>
+      <c r="H15" s="105"/>
       <c r="I15" s="104" t="s">
-        <v>118</v>
-      </c>
-      <c r="J15" s="105"/>
-      <c r="K15" s="105"/>
-      <c r="L15" s="106"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
+        <v>112</v>
+      </c>
+      <c r="J15" s="108"/>
+      <c r="K15" s="108"/>
+      <c r="L15" s="105"/>
+      <c r="M15" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="N15" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="O15" s="23" t="s">
+        <v>166</v>
+      </c>
       <c r="P15" s="9"/>
     </row>
     <row r="16" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -22272,22 +21148,28 @@
         <v>9</v>
       </c>
       <c r="E16" s="104" t="s">
-        <v>117</v>
-      </c>
-      <c r="F16" s="106"/>
+        <v>111</v>
+      </c>
+      <c r="F16" s="105"/>
       <c r="G16" s="104" t="s">
-        <v>116</v>
-      </c>
-      <c r="H16" s="106"/>
+        <v>110</v>
+      </c>
+      <c r="H16" s="105"/>
       <c r="I16" s="104" t="s">
-        <v>115</v>
-      </c>
-      <c r="J16" s="105"/>
-      <c r="K16" s="105"/>
-      <c r="L16" s="106"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
+        <v>109</v>
+      </c>
+      <c r="J16" s="108"/>
+      <c r="K16" s="108"/>
+      <c r="L16" s="105"/>
+      <c r="M16" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="N16" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="O16" s="23" t="s">
+        <v>26</v>
+      </c>
       <c r="P16" s="9"/>
     </row>
     <row r="17" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -22299,20 +21181,26 @@
         <v>10</v>
       </c>
       <c r="E17" s="104"/>
-      <c r="F17" s="106"/>
+      <c r="F17" s="105"/>
       <c r="G17" s="104" t="s">
-        <v>114</v>
-      </c>
-      <c r="H17" s="106"/>
+        <v>108</v>
+      </c>
+      <c r="H17" s="105"/>
       <c r="I17" s="104" t="s">
-        <v>113</v>
-      </c>
-      <c r="J17" s="105"/>
-      <c r="K17" s="105"/>
-      <c r="L17" s="106"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
+        <v>107</v>
+      </c>
+      <c r="J17" s="108"/>
+      <c r="K17" s="108"/>
+      <c r="L17" s="105"/>
+      <c r="M17" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="N17" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="O17" s="23" t="s">
+        <v>167</v>
+      </c>
       <c r="P17" s="9"/>
     </row>
     <row r="18" spans="1:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -22324,13 +21212,13 @@
         <v>11</v>
       </c>
       <c r="E18" s="104"/>
-      <c r="F18" s="106"/>
+      <c r="F18" s="105"/>
       <c r="G18" s="104"/>
-      <c r="H18" s="106"/>
+      <c r="H18" s="105"/>
       <c r="I18" s="104"/>
-      <c r="J18" s="105"/>
-      <c r="K18" s="105"/>
-      <c r="L18" s="106"/>
+      <c r="J18" s="108"/>
+      <c r="K18" s="108"/>
+      <c r="L18" s="105"/>
       <c r="M18" s="23"/>
       <c r="N18" s="23"/>
       <c r="O18" s="23"/>
@@ -22345,13 +21233,13 @@
         <v>12</v>
       </c>
       <c r="E19" s="104"/>
-      <c r="F19" s="106"/>
+      <c r="F19" s="105"/>
       <c r="G19" s="104"/>
-      <c r="H19" s="106"/>
+      <c r="H19" s="105"/>
       <c r="I19" s="104"/>
-      <c r="J19" s="105"/>
-      <c r="K19" s="105"/>
-      <c r="L19" s="106"/>
+      <c r="J19" s="108"/>
+      <c r="K19" s="108"/>
+      <c r="L19" s="105"/>
       <c r="M19" s="23"/>
       <c r="N19" s="23"/>
       <c r="O19" s="23"/>
@@ -22366,13 +21254,13 @@
         <v>13</v>
       </c>
       <c r="E20" s="104"/>
-      <c r="F20" s="106"/>
+      <c r="F20" s="105"/>
       <c r="G20" s="104"/>
-      <c r="H20" s="106"/>
+      <c r="H20" s="105"/>
       <c r="I20" s="104"/>
-      <c r="J20" s="105"/>
-      <c r="K20" s="105"/>
-      <c r="L20" s="106"/>
+      <c r="J20" s="108"/>
+      <c r="K20" s="108"/>
+      <c r="L20" s="105"/>
       <c r="M20" s="23"/>
       <c r="N20" s="23"/>
       <c r="O20" s="23"/>
@@ -22387,13 +21275,13 @@
         <v>14</v>
       </c>
       <c r="E21" s="104"/>
-      <c r="F21" s="106"/>
+      <c r="F21" s="105"/>
       <c r="G21" s="104"/>
-      <c r="H21" s="106"/>
+      <c r="H21" s="105"/>
       <c r="I21" s="104"/>
-      <c r="J21" s="105"/>
-      <c r="K21" s="105"/>
-      <c r="L21" s="106"/>
+      <c r="J21" s="108"/>
+      <c r="K21" s="108"/>
+      <c r="L21" s="105"/>
       <c r="M21" s="23"/>
       <c r="N21" s="23"/>
       <c r="O21" s="23"/>
@@ -22404,14 +21292,14 @@
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
       <c r="D22" s="24"/>
-      <c r="E22" s="107"/>
-      <c r="F22" s="107"/>
-      <c r="G22" s="107"/>
-      <c r="H22" s="107"/>
-      <c r="I22" s="107"/>
-      <c r="J22" s="107"/>
-      <c r="K22" s="107"/>
-      <c r="L22" s="107"/>
+      <c r="E22" s="109"/>
+      <c r="F22" s="109"/>
+      <c r="G22" s="109"/>
+      <c r="H22" s="109"/>
+      <c r="I22" s="109"/>
+      <c r="J22" s="109"/>
+      <c r="K22" s="109"/>
+      <c r="L22" s="109"/>
       <c r="M22" s="24"/>
       <c r="N22" s="25"/>
       <c r="O22" s="43"/>
@@ -22750,12 +21638,35 @@
     <filterColumn colId="7" showButton="0"/>
   </autoFilter>
   <mergeCells count="51">
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
@@ -22772,35 +21683,12 @@
     <mergeCell ref="I13:L13"/>
     <mergeCell ref="I14:L14"/>
     <mergeCell ref="I15:L15"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
@@ -22831,7 +21719,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:F1"/>
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -22848,26 +21736,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="95" t="str">
+      <c r="B1" s="96"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="98" t="str">
         <f>表紙_外部!D10</f>
-        <v>（避難情報システム）</v>
-      </c>
-      <c r="E1" s="96"/>
-      <c r="F1" s="97"/>
+        <v>避難情報システム</v>
+      </c>
+      <c r="E1" s="99"/>
+      <c r="F1" s="100"/>
       <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="98" t="s">
+      <c r="H1" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="100"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="103"/>
       <c r="L1" s="4" t="s">
         <v>2</v>
       </c>
@@ -22878,10 +21766,10 @@
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="P1" s="19">
-        <v>42920</v>
+        <v>42927</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -22970,21 +21858,21 @@
     <row r="7" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="108" t="s">
+      <c r="C7" s="116" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="108"/>
-      <c r="E7" s="101" t="s">
+      <c r="D7" s="116"/>
+      <c r="E7" s="106" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="103"/>
-      <c r="G7" s="113" t="s">
+      <c r="F7" s="107"/>
+      <c r="G7" s="142" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="113"/>
-      <c r="I7" s="113"/>
-      <c r="J7" s="113"/>
-      <c r="K7" s="113"/>
+      <c r="H7" s="142"/>
+      <c r="I7" s="142"/>
+      <c r="J7" s="142"/>
+      <c r="K7" s="142"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2" t="s">
         <v>49</v>
@@ -22996,21 +21884,21 @@
     <row r="8" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="109" t="s">
-        <v>144</v>
-      </c>
-      <c r="D8" s="109"/>
-      <c r="E8" s="110" t="s">
-        <v>143</v>
-      </c>
-      <c r="F8" s="111"/>
-      <c r="G8" s="112" t="s">
-        <v>96</v>
-      </c>
-      <c r="H8" s="112"/>
-      <c r="I8" s="112"/>
-      <c r="J8" s="112"/>
-      <c r="K8" s="112"/>
+      <c r="C8" s="129" t="s">
+        <v>137</v>
+      </c>
+      <c r="D8" s="130"/>
+      <c r="E8" s="71" t="s">
+        <v>92</v>
+      </c>
+      <c r="F8" s="131"/>
+      <c r="G8" s="71" t="s">
+        <v>98</v>
+      </c>
+      <c r="H8" s="131"/>
+      <c r="I8" s="131"/>
+      <c r="J8" s="131"/>
+      <c r="K8" s="72"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -23020,21 +21908,21 @@
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
-      <c r="C9" s="109" t="s">
-        <v>145</v>
-      </c>
-      <c r="D9" s="109"/>
-      <c r="E9" s="110" t="s">
-        <v>93</v>
-      </c>
-      <c r="F9" s="111"/>
-      <c r="G9" s="112" t="s">
-        <v>101</v>
-      </c>
-      <c r="H9" s="112"/>
-      <c r="I9" s="112"/>
-      <c r="J9" s="112"/>
-      <c r="K9" s="112"/>
+      <c r="C9" s="129" t="s">
+        <v>168</v>
+      </c>
+      <c r="D9" s="130"/>
+      <c r="E9" s="71" t="s">
+        <v>169</v>
+      </c>
+      <c r="F9" s="72"/>
+      <c r="G9" s="143" t="s">
+        <v>170</v>
+      </c>
+      <c r="H9" s="140"/>
+      <c r="I9" s="140"/>
+      <c r="J9" s="140"/>
+      <c r="K9" s="144"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -23044,21 +21932,21 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
-      <c r="C10" s="109" t="s">
-        <v>147</v>
-      </c>
-      <c r="D10" s="109"/>
-      <c r="E10" s="110" t="s">
-        <v>94</v>
-      </c>
-      <c r="F10" s="111"/>
-      <c r="G10" s="112" t="s">
-        <v>99</v>
-      </c>
-      <c r="H10" s="112"/>
-      <c r="I10" s="112"/>
-      <c r="J10" s="112"/>
-      <c r="K10" s="112"/>
+      <c r="C10" s="129" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" s="130"/>
+      <c r="E10" s="71" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" s="72"/>
+      <c r="G10" s="73" t="s">
+        <v>96</v>
+      </c>
+      <c r="H10" s="71"/>
+      <c r="I10" s="131"/>
+      <c r="J10" s="131"/>
+      <c r="K10" s="72"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -23068,19 +21956,19 @@
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="109"/>
-      <c r="D11" s="109"/>
-      <c r="E11" s="110" t="s">
+      <c r="C11" s="132"/>
+      <c r="D11" s="133"/>
+      <c r="E11" s="71" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" s="72"/>
+      <c r="G11" s="141" t="s">
         <v>95</v>
       </c>
-      <c r="F11" s="111"/>
-      <c r="G11" s="112" t="s">
-        <v>97</v>
-      </c>
-      <c r="H11" s="112"/>
-      <c r="I11" s="112"/>
-      <c r="J11" s="112"/>
-      <c r="K11" s="112"/>
+      <c r="H11" s="138"/>
+      <c r="I11" s="138"/>
+      <c r="J11" s="138"/>
+      <c r="K11" s="139"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -23090,21 +21978,15 @@
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
-      <c r="C12" s="109" t="s">
-        <v>146</v>
-      </c>
-      <c r="D12" s="109"/>
-      <c r="E12" s="110" t="s">
-        <v>102</v>
-      </c>
-      <c r="F12" s="111"/>
-      <c r="G12" s="112" t="s">
-        <v>98</v>
-      </c>
-      <c r="H12" s="112"/>
-      <c r="I12" s="112"/>
-      <c r="J12" s="112"/>
-      <c r="K12" s="112"/>
+      <c r="C12" s="134"/>
+      <c r="D12" s="135"/>
+      <c r="E12" s="136"/>
+      <c r="F12" s="135"/>
+      <c r="G12" s="136"/>
+      <c r="H12" s="137"/>
+      <c r="I12" s="137"/>
+      <c r="J12" s="137"/>
+      <c r="K12" s="135"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -23114,15 +21996,15 @@
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
-      <c r="C13" s="109"/>
-      <c r="D13" s="109"/>
-      <c r="E13" s="110"/>
-      <c r="F13" s="111"/>
-      <c r="G13" s="112"/>
-      <c r="H13" s="112"/>
-      <c r="I13" s="112"/>
-      <c r="J13" s="112"/>
-      <c r="K13" s="112"/>
+      <c r="C13" s="113"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="115"/>
+      <c r="G13" s="111"/>
+      <c r="H13" s="111"/>
+      <c r="I13" s="111"/>
+      <c r="J13" s="111"/>
+      <c r="K13" s="111"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -23132,15 +22014,15 @@
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="109"/>
-      <c r="D14" s="109"/>
-      <c r="E14" s="110"/>
-      <c r="F14" s="111"/>
-      <c r="G14" s="112"/>
-      <c r="H14" s="112"/>
-      <c r="I14" s="112"/>
-      <c r="J14" s="112"/>
-      <c r="K14" s="112"/>
+      <c r="C14" s="113"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="114"/>
+      <c r="F14" s="115"/>
+      <c r="G14" s="111"/>
+      <c r="H14" s="111"/>
+      <c r="I14" s="111"/>
+      <c r="J14" s="111"/>
+      <c r="K14" s="111"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -23150,15 +22032,15 @@
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
-      <c r="C15" s="109"/>
-      <c r="D15" s="109"/>
-      <c r="E15" s="110"/>
-      <c r="F15" s="111"/>
-      <c r="G15" s="112"/>
-      <c r="H15" s="112"/>
-      <c r="I15" s="112"/>
-      <c r="J15" s="112"/>
-      <c r="K15" s="112"/>
+      <c r="C15" s="113"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="114"/>
+      <c r="F15" s="115"/>
+      <c r="G15" s="111"/>
+      <c r="H15" s="111"/>
+      <c r="I15" s="111"/>
+      <c r="J15" s="111"/>
+      <c r="K15" s="111"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2" t="s">
         <v>54</v>
@@ -23170,15 +22052,15 @@
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
-      <c r="C16" s="109"/>
-      <c r="D16" s="109"/>
-      <c r="E16" s="110"/>
-      <c r="F16" s="111"/>
-      <c r="G16" s="112"/>
-      <c r="H16" s="112"/>
-      <c r="I16" s="112"/>
-      <c r="J16" s="112"/>
-      <c r="K16" s="112"/>
+      <c r="C16" s="113"/>
+      <c r="D16" s="113"/>
+      <c r="E16" s="114"/>
+      <c r="F16" s="115"/>
+      <c r="G16" s="111"/>
+      <c r="H16" s="111"/>
+      <c r="I16" s="111"/>
+      <c r="J16" s="111"/>
+      <c r="K16" s="111"/>
       <c r="L16" s="65"/>
       <c r="M16" s="65"/>
       <c r="N16" s="65"/>
@@ -23624,40 +22506,28 @@
       <c r="P40" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="G7:K7"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="G14:K14"/>
+  <mergeCells count="21">
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:F1"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="G7:K7"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="G14:K14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -23676,8 +22546,8 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="B1" zoomScale="120" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:F1"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="C1" zoomScale="120" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -23694,39 +22564,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="95" t="s">
-        <v>108</v>
-      </c>
-      <c r="E1" s="96"/>
-      <c r="F1" s="97"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="98" t="str">
+        <f>表紙_外部!D10</f>
+        <v>避難情報システム</v>
+      </c>
+      <c r="E1" s="99"/>
+      <c r="F1" s="100"/>
       <c r="G1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="98" t="s">
+      <c r="H1" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="100"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="103"/>
       <c r="L1" s="68" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="67" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="N1" s="68" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P1" s="19">
-        <v>42920</v>
+        <v>42927</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -23751,7 +22622,7 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="C4" s="16" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>35</v>
@@ -23811,7 +22682,7 @@
       <c r="A7" s="15"/>
       <c r="B7" s="27"/>
       <c r="D7" s="27" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E7" s="26" t="s">
         <v>83</v>
@@ -24445,8 +23316,8 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:F1"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="C1" zoomScale="120" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -24463,39 +23334,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="95" t="s">
-        <v>112</v>
-      </c>
-      <c r="E1" s="96"/>
-      <c r="F1" s="97"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="98" t="str">
+        <f>表紙_外部!D10</f>
+        <v>避難情報システム</v>
+      </c>
+      <c r="E1" s="99"/>
+      <c r="F1" s="100"/>
       <c r="G1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="98" t="s">
+      <c r="H1" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="100"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="103"/>
       <c r="L1" s="70" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="69" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="N1" s="70" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P1" s="19">
-        <v>42920</v>
+        <v>42927</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -24520,7 +23392,7 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="C4" s="16" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>35</v>
@@ -24580,7 +23452,7 @@
       <c r="A7" s="15"/>
       <c r="B7" s="27"/>
       <c r="D7" s="27" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E7" s="26" t="s">
         <v>83</v>
@@ -25214,8 +24086,8 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:F1"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="C1" zoomScale="120" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -25232,39 +24104,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="95" t="s">
-        <v>112</v>
-      </c>
-      <c r="E1" s="96"/>
-      <c r="F1" s="97"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="98" t="str">
+        <f>表紙_外部!D10</f>
+        <v>避難情報システム</v>
+      </c>
+      <c r="E1" s="99"/>
+      <c r="F1" s="100"/>
       <c r="G1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="98" t="s">
+      <c r="H1" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="100"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="103"/>
       <c r="L1" s="70" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="69" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="N1" s="70" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P1" s="19">
-        <v>42920</v>
+        <v>42927</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -25289,7 +24162,7 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="C4" s="16" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>35</v>
@@ -25349,7 +24222,7 @@
       <c r="A7" s="15"/>
       <c r="B7" s="27"/>
       <c r="D7" s="27" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E7" s="26" t="s">
         <v>83</v>
@@ -25984,7 +24857,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:F1"/>
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -26001,40 +24874,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="95" t="str">
+      <c r="B1" s="96"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="98" t="str">
         <f>表紙_外部!D10</f>
-        <v>（避難情報システム）</v>
-      </c>
-      <c r="E1" s="96"/>
-      <c r="F1" s="97"/>
+        <v>避難情報システム</v>
+      </c>
+      <c r="E1" s="99"/>
+      <c r="F1" s="100"/>
       <c r="G1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="98" t="s">
+      <c r="H1" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="100"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="103"/>
       <c r="L1" s="68" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="67" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="N1" s="68" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="P1" s="19">
-        <v>42920</v>
+        <v>42927</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="3" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -26059,7 +24932,7 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="C4" s="16" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>35</v>
@@ -26119,7 +24992,7 @@
       <c r="A7" s="15"/>
       <c r="B7" s="27"/>
       <c r="D7" s="27" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="E7" s="26" t="s">
         <v>83</v>
@@ -26753,8 +25626,8 @@
   </sheetPr>
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:F1"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="C1" zoomScale="120" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -26771,36 +25644,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="95" t="s">
-        <v>112</v>
-      </c>
-      <c r="E1" s="96"/>
-      <c r="F1" s="97"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="98" t="str">
+        <f>表紙_外部!D10</f>
+        <v>避難情報システム</v>
+      </c>
+      <c r="E1" s="99"/>
+      <c r="F1" s="100"/>
       <c r="G1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="98" t="s">
+      <c r="H1" s="101" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="100"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="103"/>
       <c r="L1" s="68" t="s">
         <v>2</v>
       </c>
       <c r="M1" s="67" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="N1" s="68" t="s">
         <v>3</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="P1" s="19">
         <v>42920</v>
@@ -26828,7 +25702,7 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
       <c r="C4" s="16" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D4" s="16" t="s">
         <v>35</v>
@@ -26888,7 +25762,7 @@
       <c r="A7" s="15"/>
       <c r="B7" s="27"/>
       <c r="D7" s="27" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E7" s="26" t="s">
         <v>83</v>
